--- a/pred_ohlcv/54_21/2019-10-16 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 ANKR ohlcv.xlsx
@@ -3850,7 +3850,7 @@
         <v>-179579859.0025424</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-179970235.7505424</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-179240009.7578424</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-179244208.7174424</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-171626469.0307424</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-171810966.4476424</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-171811897.4353424</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-170581095.8472424</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-162869382.8395424</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-161548057.4305951</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-160694374.3455978</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-157591815.1069424</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-161565806.5541431</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-160793157.7206044</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-159867660.0286903</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-153759832.6860709</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-157766011.978671</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-157690278.524871</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-151881476.4947474</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-152453258.3355474</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-152464272.0542473</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-150732750.9641474</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-150732750.9641474</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-151426858.4051474</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-151754057.7430474</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-152284006.9754474</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-154640253.0822474</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-154640253.0822474</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-154501548.7180376</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-155727079.9302375</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-156183907.2261375</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-159392247.0949375</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-159268455.2295375</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 ANKR ohlcv.xlsx
@@ -3876,7 +3876,7 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-179435535.7505424</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-179970235.7505424</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-179851249.9235424</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-179691652.7578424</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-179240009.7578424</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-179244208.7174424</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-179141240.9627424</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-179141240.9627424</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-179191188.2194424</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-179191188.2194424</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-178561801.1417424</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-178417319.1417424</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-176399635.5472424</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-171626469.0307424</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-171798410.8110424</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-171810966.4476424</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-171811897.4353424</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-170581095.8472424</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-162869382.8395424</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-161548057.4305951</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-160694374.3455978</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-159220255.4221424</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-160090957.7584424</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-163913085.9691424</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-161972557.2946641</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-162188247.8879641</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-162516898.8029641</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-161565806.5541431</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-160232877.6956431</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-160805650.4136431</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-157438493.560771</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-153613475.482571</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-152494590.399471</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-152494590.399471</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-151881476.4947474</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-152453258.3355474</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-151426858.4051474</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-151754057.7430474</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-152284006.9754474</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-154640253.0822474</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-155542601.2837474</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-145859218.8819474</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-146365032.4546474</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-146536100.3385473</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-146281470.4664474</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-147107017.0006474</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-147471262.9080474</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-147192477.8072474</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-147817272.3875474</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-148298158.1574474</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-147640415.9088474</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-147562058.2194474</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-148034959.9971474</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-148007949.7260474</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-147028160.8716474</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-147467411.2770474</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-147150789.4228474</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-147090693.5400474</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-147095493.5400474</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-147148908.7232474</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-146928708.7232474</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-146741296.7232474</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-146741296.7232474</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-146746411.3459474</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-146756840.5913474</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-147010819.4273474</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-146499576.3753474</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-146672242.0344474</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-146512167.1808726</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-146984262.7898726</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-146984262.7898726</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-146730446.3531474</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-146880446.3531474</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-146889035.9757474</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-146925185.9757474</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-147096305.5719474</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-144692474.8979474</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-144692474.8979474</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-144686597.5395474</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-144844729.3233474</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-144913599.3233474</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-144913599.3233474</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-144756751.5047474</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-144850610.0722474</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-144850610.0722474</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-145087318.0722474</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-145265020.8528474</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-145066103.8807474</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-146008999.4502474</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-145983060.5005474</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-145983060.5005474</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-145929625.8513474</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-145584538.4156474</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-146163650.1187474</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-146163650.1187474</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-145663672.2720474</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-145933727.5302474</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-145933227.5302474</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-146018358.6495474</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-145999501.7417474</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-145999050.9935474</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-147238597.3390474</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-147414766.0370474</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-150297050.3355474</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-150297050.3355474</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-150627442.7866474</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-150599044.2478474</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-150599044.2478474</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-150498300.6163474</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-151089893.1879474</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-151067268.9333474</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-151214795.4441474</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-151983507.6153474</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-152780088.7585475</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-152780088.7585475</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-152686949.5117474</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-152758747.1950474</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-152758747.1950474</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-152988698.1911474</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-153457151.7221474</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-153463802.1450475</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-153463792.1450475</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-153453320.7841474</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-153467150.7841474</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-153685125.6692474</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-153717725.9707474</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-153711632.2108474</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-153888643.6791475</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-153994825.0654474</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-154007218.8257475</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-153978344.8662474</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-153832158.9696474</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-153930126.8581474</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-153100456.7654474</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-153163405.0405474</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-153425407.4108474</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-153405942.8169474</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-153607089.6177474</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-153232966.0285474</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-153237126.4517474</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-153231176.4186474</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-153231176.4186474</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-153231194.4186474</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-153843262.6640918</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-153843245.1723918</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-153879395.1723918</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-153843245.1723918</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-153493649.8413918</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-153425536.3511918</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-153425536.3511918</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-153336947.3511918</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-154503772.4470918</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-154280599.7231918</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-154440371.7231918</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-154436371.7231918</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-154450491.8980918</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-154436491.8980918</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-154436491.8980918</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-154281464.5640894</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-154846900.7009895</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-153910308.0779895</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-153890308.0779895</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-153653684.7402894</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-153680529.5710894</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-153679543.4783894</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-153994481.2967894</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-153721591.0205894</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-154210868.5489894</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-154079371.2589895</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-154079371.2589895</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-154750877.6509894</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-155022795.7651894</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-155368017.7651894</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-155321515.0470894</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-155430245.9813894</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-155183981.9813894</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-155043945.0288376</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-155192932.3833376</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-155192932.3833376</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-155646240.7639376</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-156087508.2461376</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-156056258.4652376</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-156056258.4652376</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-156356258.4652376</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-156356258.4652376</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-155992818.5324376</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-155992818.5324376</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-156777418.5324376</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-156740655.0735376</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-156822641.8663376</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-156880671.4288376</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-156677375.2377376</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-156687375.2377376</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-157571323.1382376</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-156980506.8917376</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-152992543.1428376</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-153279272.4330376</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-153345498.2240376</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-153362391.9793376</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-153434158.8212376</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-154501548.7180376</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-154564495.4090376</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-154564181.0276376</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-154544181.0276376</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-154576767.6184376</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-155523339.5806375</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-155727079.9302375</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-156183907.2261375</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-159392247.0949375</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-159310703.0712375</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-159268455.2295375</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
